--- a/trunk/SRS ENTREGA/Requerimientos_NoFuncionales (0.2)lineaBase.xlsx
+++ b/trunk/SRS ENTREGA/Requerimientos_NoFuncionales (0.2)lineaBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -823,8 +823,188 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,39 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,153 +1046,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1360,19 +1360,19 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="85"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="17" t="s">
         <v>51</v>
       </c>
@@ -1386,19 +1386,19 @@
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="19"/>
       <c r="L2" s="4" t="s">
         <v>16</v>
@@ -1412,19 +1412,19 @@
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="48" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="68"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="19" t="s">
         <v>52</v>
       </c>
@@ -1440,19 +1440,19 @@
       <c r="A4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="19" t="s">
         <v>52</v>
       </c>
@@ -1466,19 +1466,19 @@
       <c r="A5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="48" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="68"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="19"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1490,19 +1490,19 @@
       <c r="A6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="68" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="19"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1514,21 +1514,21 @@
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="69" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1541,20 +1541,22 @@
       <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="69" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1566,20 +1568,22 @@
       <c r="A9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="69" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1591,19 +1595,19 @@
       <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="71" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="49"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="19" t="s">
         <v>56</v>
       </c>
@@ -1618,19 +1622,19 @@
       <c r="A11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="71" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="49"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="19" t="s">
         <v>56</v>
       </c>
@@ -1643,17 +1647,17 @@
     </row>
     <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="71" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="49"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="19"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1666,19 +1670,19 @@
       <c r="A13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="82" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="47"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="19" t="s">
         <v>58</v>
       </c>
@@ -1695,19 +1699,19 @@
       <c r="A14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="82" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="47"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="19" t="s">
         <v>58</v>
       </c>
@@ -1724,17 +1728,17 @@
       <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="82" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="47"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="19" t="s">
         <v>58</v>
       </c>
@@ -1749,17 +1753,17 @@
     </row>
     <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="82" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="19"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1770,17 +1774,17 @@
     </row>
     <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="82" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="19"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1793,19 +1797,19 @@
       <c r="A18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="75" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="19" t="s">
         <v>56</v>
       </c>
@@ -1820,19 +1824,19 @@
       <c r="A19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="75" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="19"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1845,19 +1849,19 @@
       <c r="A20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="75" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="19"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1870,19 +1874,19 @@
       <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="77" t="s">
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="54"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="19" t="s">
         <v>56</v>
       </c>
@@ -1897,19 +1901,19 @@
       <c r="A22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="77" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="19" t="s">
         <v>56</v>
       </c>
@@ -1922,19 +1926,19 @@
       <c r="A23" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="77" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="54"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="19" t="s">
         <v>56</v>
       </c>
@@ -1947,19 +1951,19 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="78" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
       <c r="K24" s="19" t="s">
         <v>58</v>
       </c>
@@ -1972,19 +1976,19 @@
       <c r="A25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="78" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="19" t="s">
         <v>53</v>
       </c>
@@ -1998,11 +2002,11 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="79"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="19"/>
       <c r="L26" s="7"/>
     </row>
@@ -2010,19 +2014,19 @@
       <c r="A27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="61"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="19" t="s">
         <v>58</v>
       </c>
@@ -2035,19 +2039,19 @@
       <c r="A28" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
       <c r="K28" s="19" t="s">
         <v>58</v>
       </c>
@@ -2057,19 +2061,19 @@
       <c r="A29" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64" t="s">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
       <c r="K29" s="19"/>
       <c r="L29" s="8"/>
     </row>
@@ -2077,19 +2081,19 @@
       <c r="A30" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64" t="s">
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="61"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
       <c r="K30" s="19"/>
       <c r="L30" s="8"/>
     </row>
@@ -2097,19 +2101,19 @@
       <c r="A31" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="64" t="s">
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="61"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="19"/>
       <c r="L31" s="8"/>
     </row>
@@ -2117,19 +2121,19 @@
       <c r="A32" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64" t="s">
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="61"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="19"/>
       <c r="L32" s="8"/>
     </row>
@@ -2137,19 +2141,19 @@
       <c r="A33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="52" t="s">
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
       <c r="K33" s="19" t="s">
         <v>52</v>
       </c>
@@ -2162,19 +2166,19 @@
       <c r="A34" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="52" t="s">
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
       <c r="K34" s="19" t="s">
         <v>56</v>
       </c>
@@ -2182,17 +2186,17 @@
     </row>
     <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="29"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="52" t="s">
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="83"/>
       <c r="K35" s="19"/>
       <c r="L35" s="9"/>
     </row>
@@ -2200,19 +2204,19 @@
       <c r="A36" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="34" t="s">
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
       <c r="K36" s="31" t="s">
         <v>58</v>
       </c>
@@ -2225,19 +2229,19 @@
       <c r="A37" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
       <c r="K37" s="31" t="s">
         <v>58</v>
       </c>
@@ -2247,19 +2251,19 @@
       <c r="A38" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34" t="s">
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
       <c r="K38" s="31" t="s">
         <v>58</v>
       </c>
@@ -2269,19 +2273,19 @@
       <c r="A39" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="35" t="s">
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
       <c r="K39" s="31" t="s">
         <v>58</v>
       </c>
@@ -2294,19 +2298,19 @@
       <c r="A40" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="34" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
       <c r="K40" s="31" t="s">
         <v>58</v>
       </c>
@@ -2356,10 +2360,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
       <c r="K43" s="2"/>
       <c r="L43" s="5"/>
       <c r="M43" s="15" t="s">
@@ -2550,33 +2554,38 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
@@ -2593,43 +2602,38 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
